--- a/uploads/process-files/2026/02/210.xlsx
+++ b/uploads/process-files/2026/02/210.xlsx
@@ -4054,6 +4054,2666 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId121"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId123"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId127"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId128"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId129"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId130"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId131"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId132"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId133"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId134"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId135"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId136"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId137"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId138"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId139"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId140"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId141"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId142"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId143"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId144"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId145"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/uploads/process-files/2026/02/210.xlsx
+++ b/uploads/process-files/2026/02/210.xlsx
@@ -6714,6 +6714,766 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId146"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId147"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId148"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId149"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId150"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId151"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId152"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId153"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId154"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId155"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId156"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId157"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId158"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId159"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId160"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId161"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId162"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId163"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId164"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId165"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/uploads/process-files/2026/02/210.xlsx
+++ b/uploads/process-files/2026/02/210.xlsx
@@ -7474,6 +7474,956 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId166"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId167"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId168"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId169"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId170"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId171"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId172"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId173"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="174" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId174"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="175" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId175"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId176"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId177"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId178"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId179"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId180"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId181"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId182"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId183"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId184"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId185"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId186"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="19050"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="187" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId187"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="19050"/>
+          <a:ext cx="266700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId188"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="19050"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId189"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="342900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId190"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
